--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
@@ -10214,7 +10214,7 @@
         <v>33833.62152926574</v>
       </c>
       <c r="D379">
-        <v>14117.99102628508</v>
+        <v>14117.99102628509</v>
       </c>
       <c r="E379">
         <v>36924.18705678893</v>
